--- a/analise_financeiro/apresentação-Neotin.xlsx
+++ b/analise_financeiro/apresentação-Neotin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,12 +519,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -559,12 +559,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -590,7 +590,7 @@
         <v>7698.35</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -599,16 +599,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>7698.35</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -639,12 +639,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -679,12 +679,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -719,12 +719,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -759,12 +759,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -799,12 +799,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -839,12 +839,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -879,12 +879,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -919,12 +919,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -959,12 +959,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -991,12 +991,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1009,10 +1009,10 @@
         <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1071,12 +1071,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1110,7 +1110,7 @@
         <v>5330</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1119,16 +1119,16 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10660</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1150,7 +1150,7 @@
         <v>6713.01</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1159,16 +1159,16 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6713.01</v>
+        <v>20139.03</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1199,12 +1199,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1399,12 +1399,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1559,12 +1559,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1609,10 +1609,10 @@
         <v>300</v>
       </c>
       <c r="K29" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>3600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="30">
@@ -1631,12 +1631,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1671,12 +1671,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1714,17 +1714,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1754,17 +1754,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1790,25 +1790,25 @@
         <v>7698.35</v>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>46190.10000000001</v>
+        <v>7698.35</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1834,17 +1834,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1874,17 +1874,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1914,17 +1914,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -1950,25 +1950,25 @@
         <v>5237.06</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>5237.06</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1990,25 +1990,25 @@
         <v>7157.78</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>7157.78</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2034,17 +2034,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2074,17 +2074,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2114,17 +2114,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2150,25 +2150,25 @@
         <v>4850</v>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>24250</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2186,17 +2186,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2209,10 +2209,10 @@
         <v>300</v>
       </c>
       <c r="K44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45">
@@ -2226,17 +2226,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2249,10 +2249,10 @@
         <v>300</v>
       </c>
       <c r="K45" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2266,17 +2266,17 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2310,25 +2310,25 @@
         <v>5330</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>10660</v>
+        <v>5330</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2354,17 +2354,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2390,25 +2390,25 @@
         <v>7698.35</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>7698.35</v>
+        <v>30793.4</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2434,17 +2434,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2474,17 +2474,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2510,25 +2510,25 @@
         <v>5850</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>5850</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2554,17 +2554,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2590,25 +2590,25 @@
         <v>7157.78</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>7157.78</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2634,17 +2634,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2674,17 +2674,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2714,17 +2714,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2750,25 +2750,25 @@
         <v>4850</v>
       </c>
       <c r="D58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>19400</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2786,17 +2786,17 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -2809,10 +2809,10 @@
         <v>300</v>
       </c>
       <c r="K59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L59" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="60">
@@ -2826,17 +2826,17 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2849,10 +2849,10 @@
         <v>300</v>
       </c>
       <c r="K60" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2866,17 +2866,17 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -2914,17 +2914,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2994,17 +2994,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3074,17 +3074,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -3114,17 +3114,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -3150,25 +3150,25 @@
         <v>5237.06</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>10474.12</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3194,17 +3194,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -3234,17 +3234,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -3274,17 +3274,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -3314,17 +3314,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -3350,25 +3350,25 @@
         <v>4850</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>9700</v>
+        <v>4850</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3386,17 +3386,17 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -3426,17 +3426,17 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -3449,10 +3449,10 @@
         <v>300</v>
       </c>
       <c r="K75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76">
@@ -3466,17 +3466,17 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Nilópolis</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -3510,25 +3510,25 @@
         <v>5330</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>5330</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3550,25 +3550,25 @@
         <v>6713.01</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>6713.01</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3590,25 +3590,25 @@
         <v>7698.35</v>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>23095.05</v>
+        <v>15396.7</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3634,17 +3634,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3674,17 +3674,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -3714,17 +3714,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3750,25 +3750,25 @@
         <v>5237.06</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>5237.06</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3794,17 +3794,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -3874,17 +3874,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3914,17 +3914,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3954,17 +3954,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3986,17 +3986,17 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -4009,10 +4009,10 @@
         <v>300</v>
       </c>
       <c r="K89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L89" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="90">
@@ -4026,17 +4026,17 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -4049,10 +4049,10 @@
         <v>300</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91">
@@ -4066,17 +4066,17 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -4114,17 +4114,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -4154,17 +4154,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -4194,17 +4194,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -4234,17 +4234,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -4274,17 +4274,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -4310,25 +4310,25 @@
         <v>5850</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>5850</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4350,25 +4350,25 @@
         <v>5237.06</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>5237.06</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4394,17 +4394,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -4434,17 +4434,17 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -4474,17 +4474,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -4514,17 +4514,17 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -4554,17 +4554,17 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -4586,17 +4586,17 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4609,10 +4609,10 @@
         <v>300</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4626,17 +4626,17 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4649,10 +4649,10 @@
         <v>300</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="106">
@@ -4666,17 +4666,17 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Paracambi</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -4714,17 +4714,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -4754,17 +4754,17 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -4790,25 +4790,25 @@
         <v>7698.35</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>30793.4</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4834,17 +4834,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -4874,17 +4874,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -4910,25 +4910,25 @@
         <v>5850</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>5850</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4950,25 +4950,25 @@
         <v>5237.06</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>10474.12</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4994,17 +4994,17 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -5034,17 +5034,17 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -5074,17 +5074,17 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -5150,25 +5150,25 @@
         <v>4850</v>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>14550</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5186,17 +5186,17 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -5209,10 +5209,10 @@
         <v>300</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="120">
@@ -5226,17 +5226,17 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -5249,10 +5249,10 @@
         <v>300</v>
       </c>
       <c r="K120" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>2100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -5266,17 +5266,17 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
@@ -5314,17 +5314,17 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -5354,17 +5354,17 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -5394,17 +5394,17 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -5434,17 +5434,17 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -5474,17 +5474,17 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -5510,25 +5510,25 @@
         <v>5850</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>5850</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5550,25 +5550,25 @@
         <v>5237.06</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>5237.06</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5594,17 +5594,17 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -5634,17 +5634,17 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -5674,17 +5674,17 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -5714,17 +5714,17 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -5750,25 +5750,25 @@
         <v>4850</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>4850</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5786,17 +5786,17 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -5826,17 +5826,17 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -5849,10 +5849,10 @@
         <v>300</v>
       </c>
       <c r="K135" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L135" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="136">
@@ -5866,17 +5866,17 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -5910,25 +5910,25 @@
         <v>5330</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>5330</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5954,17 +5954,17 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -5990,25 +5990,25 @@
         <v>7698.35</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>7698.35</v>
+        <v>46190.10000000001</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -6034,17 +6034,17 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -6074,17 +6074,17 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -6114,17 +6114,17 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -6154,17 +6154,17 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -6190,25 +6190,25 @@
         <v>7157.78</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>7157.78</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6234,17 +6234,17 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -6274,17 +6274,17 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -6314,17 +6314,17 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -6354,17 +6354,17 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -6386,17 +6386,17 @@
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
@@ -6409,10 +6409,10 @@
         <v>300</v>
       </c>
       <c r="K149" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L149" t="n">
-        <v>300</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="150">
@@ -6426,17 +6426,17 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
@@ -6449,10 +6449,10 @@
         <v>300</v>
       </c>
       <c r="K150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L150" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151">
@@ -6466,17 +6466,17 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
@@ -6492,6 +6492,606 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>5330</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>6713.01</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>7698.35</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TRATAMENTO CIRÚRGICO DE PERFURAÇÃO DO SEPTO NASAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>CORREÇÃO CIRÚRGICO DE ESTRABISMO (ACIMA DE 2 MUSCULOS) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>5255.28</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>5850</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>5237.06</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>7157.78</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7157.78</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>TRATAMENTO CIRÚRGICO DE HIDROCELE - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>3782.7</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>6608.86</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>PLASTICA TOTAL DO PENIS - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>4850</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>4850</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>CONSULTA PEDIATRICA OTORRINO</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>300</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>CONSULTA PEDIATRICA CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>300</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Neotin</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>São João de Meriti</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>20/11 a 19/12</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>CONSULTA PEDIATRICA OFTALMOLOGISTA</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>300</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
         <v>0</v>
       </c>
     </row>
